--- a/Results/Results table.xlsx
+++ b/Results/Results table.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="FU time" sheetId="5" r:id="rId1"/>
-    <sheet name="Recurrence and MSM table" sheetId="6" r:id="rId2"/>
-    <sheet name="AJCC" sheetId="8" r:id="rId3"/>
+    <sheet name="AJCC" sheetId="8" r:id="rId1"/>
+    <sheet name="FU time" sheetId="5" r:id="rId2"/>
+    <sheet name="Recurrence and MSM" sheetId="9" r:id="rId3"/>
     <sheet name="Full model" sheetId="1" r:id="rId4"/>
     <sheet name="BS0.01" sheetId="2" r:id="rId5"/>
     <sheet name="Full model refit MSM" sheetId="3" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="156">
   <si>
     <t>(ref)</t>
   </si>
@@ -50,12 +50,6 @@
     <t>CI.pos</t>
   </si>
   <si>
-    <t>Chi2.neg</t>
-  </si>
-  <si>
-    <t>Chi2.pos</t>
-  </si>
-  <si>
     <t>C-index MSM</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>V2</t>
   </si>
   <si>
-    <t>V3</t>
-  </si>
-  <si>
     <t>Amsterdam</t>
   </si>
   <si>
@@ -86,18 +77,12 @@
     <t>Follow-up time</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Positive</t>
   </si>
   <si>
     <t>Negative</t>
   </si>
   <si>
-    <t>Recurrence</t>
-  </si>
-  <si>
     <t>MSM</t>
   </si>
   <si>
@@ -107,15 +92,9 @@
     <t>Positive SN status</t>
   </si>
   <si>
-    <t>Negative SN status</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>4.79 [4.60; 4.94]</t>
   </si>
   <si>
@@ -131,243 +110,12 @@
     <t>6.19 [5.91; 6.73]</t>
   </si>
   <si>
-    <t>[0.61; 1.59]</t>
-  </si>
-  <si>
-    <t>[0.87; 1.59]</t>
-  </si>
-  <si>
-    <t>[0.92; 1.03]</t>
-  </si>
-  <si>
     <t>[0.75; 0.78]</t>
   </si>
   <si>
-    <t>[0.76; 0.80]</t>
-  </si>
-  <si>
-    <t>[1.13; 1.78]</t>
-  </si>
-  <si>
-    <t>[0.70; 1.56]</t>
-  </si>
-  <si>
     <t>[0.77; 0.81]</t>
   </si>
   <si>
-    <t>[0.89; 1.62]</t>
-  </si>
-  <si>
-    <t>[1.53; 2.26]</t>
-  </si>
-  <si>
-    <t>[0.73; 1.40]</t>
-  </si>
-  <si>
-    <t>[1.07; 2.00]</t>
-  </si>
-  <si>
-    <t>[1.15; 2.58]</t>
-  </si>
-  <si>
-    <t>[2.06; 2.82]</t>
-  </si>
-  <si>
-    <t>[1.05; 2.38]</t>
-  </si>
-  <si>
-    <t>[1.13; 1.41]</t>
-  </si>
-  <si>
-    <t>[1.03; 1.50]</t>
-  </si>
-  <si>
-    <t>[0.76; 3.52]</t>
-  </si>
-  <si>
-    <t>[1.43; 2.14]</t>
-  </si>
-  <si>
-    <t>[0.83; 2.29]</t>
-  </si>
-  <si>
-    <t>[1.02; 1.85]</t>
-  </si>
-  <si>
-    <t>[0.46; 2.97]</t>
-  </si>
-  <si>
-    <t>[1.12; 2.00]</t>
-  </si>
-  <si>
-    <t>[0.49; 2.93]</t>
-  </si>
-  <si>
-    <t>[1.59; 3.36]</t>
-  </si>
-  <si>
-    <t>[0.53; 4.95]</t>
-  </si>
-  <si>
-    <t>[0.96; 1.50]</t>
-  </si>
-  <si>
-    <t>[0.75; 2.26]</t>
-  </si>
-  <si>
-    <t>[0.94; 2.60]</t>
-  </si>
-  <si>
-    <t>[0.41; 4.87]</t>
-  </si>
-  <si>
-    <t>[0.67; 1.55]</t>
-  </si>
-  <si>
-    <t>[0.29; 4.41]</t>
-  </si>
-  <si>
-    <t>[1.87; 2.47]</t>
-  </si>
-  <si>
-    <t>[1.08; 2.20]</t>
-  </si>
-  <si>
-    <t>[0.97; 1.81]</t>
-  </si>
-  <si>
-    <t>[0.65; 2.92]</t>
-  </si>
-  <si>
-    <t>[0.83; 1.16]</t>
-  </si>
-  <si>
-    <t>[1.04; 1.31]</t>
-  </si>
-  <si>
-    <t>[0.94; 2.02]</t>
-  </si>
-  <si>
-    <t>[0.58; 1.55]</t>
-  </si>
-  <si>
-    <t>[0.55; 1.55]</t>
-  </si>
-  <si>
-    <t>[0.70; 1.89]</t>
-  </si>
-  <si>
-    <t>[2.34; 3.33]</t>
-  </si>
-  <si>
-    <t>[1.40; 1.91]</t>
-  </si>
-  <si>
-    <t>[1.01; 1.68]</t>
-  </si>
-  <si>
-    <t>[1.15; 1.86]</t>
-  </si>
-  <si>
-    <t>[1.49; 2.75]</t>
-  </si>
-  <si>
-    <t>[2.02; 2.56]</t>
-  </si>
-  <si>
-    <t>[1.14; 2.10]</t>
-  </si>
-  <si>
-    <t>[1.11; 1.31]</t>
-  </si>
-  <si>
-    <t>[1.06; 1.76]</t>
-  </si>
-  <si>
-    <t>[0.60; 2.13]</t>
-  </si>
-  <si>
-    <t>[0.55; 1.19]</t>
-  </si>
-  <si>
-    <t>[0.61; 4.47]</t>
-  </si>
-  <si>
-    <t>[1.60; 2.71]</t>
-  </si>
-  <si>
-    <t>[0.85; 3.17]</t>
-  </si>
-  <si>
-    <t>[0.30; 3.09]</t>
-  </si>
-  <si>
-    <t>[1.19; 2.49]</t>
-  </si>
-  <si>
-    <t>[0.35; 3.37]</t>
-  </si>
-  <si>
-    <t>[0.98; 2.85]</t>
-  </si>
-  <si>
-    <t>[0.43; 7.30]</t>
-  </si>
-  <si>
-    <t>[0.82; 1.51]</t>
-  </si>
-  <si>
-    <t>[0.51; 2.27]</t>
-  </si>
-  <si>
-    <t>[0.77; 3.30]</t>
-  </si>
-  <si>
-    <t>[0.32; 9.19]</t>
-  </si>
-  <si>
-    <t>[0.57; 1.80]</t>
-  </si>
-  <si>
-    <t>[0.07; 5.71]</t>
-  </si>
-  <si>
-    <t>[1.92; 2.82]</t>
-  </si>
-  <si>
-    <t>[0.99; 2.56]</t>
-  </si>
-  <si>
-    <t>[0.69; 1.61]</t>
-  </si>
-  <si>
-    <t>[0.51; 3.81]</t>
-  </si>
-  <si>
-    <t>[0.88; 1.03]</t>
-  </si>
-  <si>
-    <t>[0.77; 1.19]</t>
-  </si>
-  <si>
-    <t>[1.03; 1.43]</t>
-  </si>
-  <si>
-    <t>[0.74; 1.81]</t>
-  </si>
-  <si>
-    <t>[0.67; 2.29]</t>
-  </si>
-  <si>
-    <t>[0.59; 2.12]</t>
-  </si>
-  <si>
-    <t>[0.73; 2.47]</t>
-  </si>
-  <si>
-    <t>[2.23; 3.59]</t>
-  </si>
-  <si>
     <t>All patients:</t>
   </si>
   <si>
@@ -410,12 +158,6 @@
     <t>[0.59; 0.64]</t>
   </si>
   <si>
-    <t>[0.17; 8.55]</t>
-  </si>
-  <si>
-    <t>[0.02; 3.93]</t>
-  </si>
-  <si>
     <t>[0.71; 0.75]</t>
   </si>
   <si>
@@ -467,9 +209,6 @@
     <t>Multiple fields</t>
   </si>
   <si>
-    <t>Total number of nodes</t>
-  </si>
-  <si>
     <t>SN tumour burden</t>
   </si>
   <si>
@@ -489,6 +228,276 @@
   </si>
   <si>
     <t>Extensive</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Age iqr</t>
+  </si>
+  <si>
+    <t>Breslow iqr</t>
+  </si>
+  <si>
+    <t>Total number of negative nodes</t>
+  </si>
+  <si>
+    <t>Total number of positive nodes</t>
+  </si>
+  <si>
+    <t>SN tumour burden iqr</t>
+  </si>
+  <si>
+    <t>perc</t>
+  </si>
+  <si>
+    <t>[0.69; 0.74]</t>
+  </si>
+  <si>
+    <t>[2.04; 7.92]</t>
+  </si>
+  <si>
+    <t>[1.03; 1.53]</t>
+  </si>
+  <si>
+    <t>[0.78; 1.23]</t>
+  </si>
+  <si>
+    <t>[0.96; 1.29]</t>
+  </si>
+  <si>
+    <t>[1.08; 1.53]</t>
+  </si>
+  <si>
+    <t>[1.33; 2.05]</t>
+  </si>
+  <si>
+    <t>[1.10; 1.78]</t>
+  </si>
+  <si>
+    <t>[1.05; 1.98]</t>
+  </si>
+  <si>
+    <t>[0.62; 1.90]</t>
+  </si>
+  <si>
+    <t>[1.10; 2.05]</t>
+  </si>
+  <si>
+    <t>[0.66; 1.96]</t>
+  </si>
+  <si>
+    <t>[1.57; 3.46]</t>
+  </si>
+  <si>
+    <t>[0.80; 2.92]</t>
+  </si>
+  <si>
+    <t>[1.03; 1.64]</t>
+  </si>
+  <si>
+    <t>[0.99; 1.68]</t>
+  </si>
+  <si>
+    <t>[0.83; 2.45]</t>
+  </si>
+  <si>
+    <t>[0.80; 2.40]</t>
+  </si>
+  <si>
+    <t>[0.64; 1.57]</t>
+  </si>
+  <si>
+    <t>[0.50; 2.66]</t>
+  </si>
+  <si>
+    <t>[2.06; 2.80]</t>
+  </si>
+  <si>
+    <t>[1.30; 1.88]</t>
+  </si>
+  <si>
+    <t>[1.10; 2.10]</t>
+  </si>
+  <si>
+    <t>[1.05; 2.02]</t>
+  </si>
+  <si>
+    <t>[0.90; 1.01]</t>
+  </si>
+  <si>
+    <t>[0.82; 1.17]</t>
+  </si>
+  <si>
+    <t>[1.30; 10.00]</t>
+  </si>
+  <si>
+    <t>[0.93; 2.10]</t>
+  </si>
+  <si>
+    <t>[0.58; 1.60]</t>
+  </si>
+  <si>
+    <t>[0.52; 1.55]</t>
+  </si>
+  <si>
+    <t>[0.74; 2.02]</t>
+  </si>
+  <si>
+    <t>[0.76; 0.79]</t>
+  </si>
+  <si>
+    <t>[0.78; 0.82]</t>
+  </si>
+  <si>
+    <t>[2.44; 3.53]</t>
+  </si>
+  <si>
+    <t>[1.08; 1.35]</t>
+  </si>
+  <si>
+    <t>[1.36; 1.88]</t>
+  </si>
+  <si>
+    <t>[0.99; 1.69]</t>
+  </si>
+  <si>
+    <t>[1.13; 1.88]</t>
+  </si>
+  <si>
+    <t>[1.44; 2.72]</t>
+  </si>
+  <si>
+    <t>[2.26; 2.93]</t>
+  </si>
+  <si>
+    <t>[1.34; 1.88]</t>
+  </si>
+  <si>
+    <t>[2.51; 10.59]</t>
+  </si>
+  <si>
+    <t>[2.54; 16.31]</t>
+  </si>
+  <si>
+    <t>[1.22; 2.24]</t>
+  </si>
+  <si>
+    <t>[0.89; 1.64]</t>
+  </si>
+  <si>
+    <t>[0.74; 1.16]</t>
+  </si>
+  <si>
+    <t>[1.09; 1.76]</t>
+  </si>
+  <si>
+    <t>[1.51; 2.80]</t>
+  </si>
+  <si>
+    <t>[1.20; 2.24]</t>
+  </si>
+  <si>
+    <t>[0.69; 1.83]</t>
+  </si>
+  <si>
+    <t>[0.44; 1.69]</t>
+  </si>
+  <si>
+    <t>[1.15; 2.81]</t>
+  </si>
+  <si>
+    <t>[0.48; 1.83]</t>
+  </si>
+  <si>
+    <t>[0.97; 3.37]</t>
+  </si>
+  <si>
+    <t>[0.75; 3.28]</t>
+  </si>
+  <si>
+    <t>[0.95; 1.93]</t>
+  </si>
+  <si>
+    <t>[0.83; 1.59]</t>
+  </si>
+  <si>
+    <t>[0.63; 3.64]</t>
+  </si>
+  <si>
+    <t>[0.59; 2.76]</t>
+  </si>
+  <si>
+    <t>[0.48; 2.07]</t>
+  </si>
+  <si>
+    <t>[0.16; 3.06]</t>
+  </si>
+  <si>
+    <t>[2.02; 3.18]</t>
+  </si>
+  <si>
+    <t>[1.24; 2.01]</t>
+  </si>
+  <si>
+    <t>[0.76; 1.97]</t>
+  </si>
+  <si>
+    <t>[0.98; 2.27]</t>
+  </si>
+  <si>
+    <t>[0.86; 1.03]</t>
+  </si>
+  <si>
+    <t>[0.79; 1.25]</t>
+  </si>
+  <si>
+    <t>[1.11; 20.25]</t>
+  </si>
+  <si>
+    <t>[0.66; 1.76]</t>
+  </si>
+  <si>
+    <t>[0.63; 2.37]</t>
+  </si>
+  <si>
+    <t>[0.60; 2.34]</t>
+  </si>
+  <si>
+    <t>[0.74; 2.72]</t>
+  </si>
+  <si>
+    <t>[2.61; 4.44]</t>
+  </si>
+  <si>
+    <t>[1.00; 1.38]</t>
+  </si>
+  <si>
+    <t>[1.47; 2.28]</t>
+  </si>
+  <si>
+    <t>[0.66; 1.41]</t>
+  </si>
+  <si>
+    <t>[1.00; 2.06]</t>
+  </si>
+  <si>
+    <t>[1.10; 2.74]</t>
+  </si>
+  <si>
+    <t>[2.30; 3.36]</t>
+  </si>
+  <si>
+    <t>[1.27; 2.01]</t>
+  </si>
+  <si>
+    <t>[2.65; 19.94]</t>
+  </si>
+  <si>
+    <t>[0.77; 0.82]</t>
   </si>
 </sst>
 </file>
@@ -523,7 +532,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -531,40 +540,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -577,15 +557,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -595,10 +566,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -881,307 +852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f>B2</f>
-        <v>4.79 [4.60; 4.94]</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>B3</f>
-        <v>4.75 [4.48; 4.98]</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f>B4</f>
-        <v>2.73 [2.46; 3.03]</v>
-      </c>
-      <c r="H2" s="4" t="str">
-        <f>B5</f>
-        <v>6.33 [6.06; 7.07]</v>
-      </c>
-      <c r="I2" s="3" t="str">
-        <f>B6</f>
-        <v>6.19 [5.91; 6.73]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5">
-        <v>862</v>
-      </c>
-      <c r="C2" s="5">
-        <v>21.2</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5">
-        <v>363</v>
-      </c>
-      <c r="C3" s="5">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5">
-        <v>499</v>
-      </c>
-      <c r="C4" s="5">
-        <v>15.7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G6" si="0">B2</f>
-        <v>862</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>21.2</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:J6" si="1">B6</f>
-        <v>504</v>
-      </c>
-      <c r="J4" s="12">
-        <f t="shared" si="1"/>
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>363</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="1"/>
-        <v>221</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="1"/>
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5">
-        <v>504</v>
-      </c>
-      <c r="C6" s="5">
-        <v>12.4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>499</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>15.7</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>283</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="1"/>
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5">
-        <v>221</v>
-      </c>
-      <c r="C7" s="5">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5">
-        <v>283</v>
-      </c>
-      <c r="C8" s="5">
-        <v>8.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1189,7 +864,8 @@
     <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1199,144 +875,144 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2">
         <v>0.73</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
         <v>0.57999999999999996</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>0.71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
         <v>0.73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2">
         <v>0.73</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E4" s="5" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>0.57999999999999996</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2">
         <v>0.62</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>0.71</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2">
         <v>0.71</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
         <v>0.62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>0.71</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1349,7 +1025,7 @@
       <c r="C10" s="5">
         <v>253</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
@@ -1361,7 +1037,7 @@
       <c r="C11" s="5">
         <v>1496</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -1373,7 +1049,7 @@
       <c r="C12" s="5">
         <v>692</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
@@ -1385,7 +1061,7 @@
       <c r="C13" s="5">
         <v>495</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
@@ -1397,7 +1073,7 @@
       <c r="C14" s="5">
         <v>250</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
@@ -1409,7 +1085,7 @@
       <c r="C15" s="5">
         <v>199</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
@@ -1443,11 +1119,192 @@
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>B2</f>
+        <v>4.79 [4.60; 4.94]</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>B3</f>
+        <v>4.75 [4.48; 4.98]</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>B4</f>
+        <v>2.73 [2.46; 3.03]</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>B5</f>
+        <v>6.33 [6.06; 7.07]</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>B6</f>
+        <v>6.19 [5.91; 6.73]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4071</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100</v>
+      </c>
+      <c r="D2" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="E2" s="11">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3182</v>
+      </c>
+      <c r="C3" s="11">
+        <v>78.2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11">
+        <v>889</v>
+      </c>
+      <c r="C4" s="11">
+        <v>21.8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>48.7</v>
+      </c>
+      <c r="E4" s="11">
+        <v>30.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1455,25 +1312,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="34" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1490,116 +1345,120 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>1.21</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="12">
-        <v>38.6</v>
-      </c>
-      <c r="G2" s="13">
-        <v>22.1</v>
+        <v>75</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41</v>
+      </c>
+      <c r="G2" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2">
         <v>0.98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G3" s="13">
-        <v>2.5</v>
+        <v>77</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2">
-        <v>1.17</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12">
-        <v>8.4</v>
-      </c>
-      <c r="G4" s="13">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="12">
-        <v>35.5</v>
-      </c>
-      <c r="G5" s="13">
-        <v>2.2999999999999998</v>
+        <v>81</v>
+      </c>
+      <c r="F5" s="1">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1609,84 +1468,80 @@
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="12">
-        <v>22.4</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1696,279 +1551,267 @@
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="12">
-        <v>144.6</v>
-      </c>
-      <c r="G16" s="13">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="F16" s="1">
+        <v>147</v>
+      </c>
+      <c r="G16" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="12">
-        <v>6.3</v>
-      </c>
-      <c r="G17" s="13">
+        <v>97</v>
+      </c>
+      <c r="F17" s="1">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="12">
-        <v>6.6</v>
-      </c>
-      <c r="G19" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>1.38</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="12">
-        <v>6.2</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>0.95</v>
+        <v>1.4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
-        <v>1.1499999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -1976,7 +1819,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
@@ -1984,7 +1827,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -1992,7 +1835,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -2000,7 +1843,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
@@ -2008,7 +1851,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
@@ -2016,7 +1859,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -2024,8 +1867,8 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2034,8 +1877,8 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2044,8 +1887,8 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2054,8 +1897,8 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2064,8 +1907,8 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2074,8 +1917,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2084,8 +1927,8 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2094,8 +1937,8 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2128,13 +1971,15 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G13"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="6"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2150,85 +1995,83 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
+      <c r="E1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>2.79</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13">
-        <v>140.5</v>
+        <v>2.93</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="7">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2">
-        <v>1.42</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="13">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G3" s="13"/>
+        <v>1.21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2">
-        <v>1.63</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="13">
-        <v>39.5</v>
-      </c>
-      <c r="G4" s="13"/>
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="7">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="7">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2237,135 +2080,120 @@
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2">
         <v>1.3</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="13">
-        <v>22.1</v>
-      </c>
-      <c r="G7" s="13"/>
+      <c r="E7" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2">
         <v>1.46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2">
         <v>1.46</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0299999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+        <v>1.98</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2">
-        <v>2.27</v>
+        <v>2.57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="13">
-        <v>207.7</v>
-      </c>
-      <c r="G10" s="13">
-        <v>16.100000000000001</v>
+        <v>1.59</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="7">
+        <v>218</v>
+      </c>
+      <c r="G10" s="7">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="13">
-        <v>19.2</v>
-      </c>
-      <c r="G11" s="13"/>
+        <v>5.15</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>0.77</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>0.79</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -2395,13 +2223,15 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G26"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="34" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="6"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2417,114 +2247,118 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
+      <c r="E1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="13">
-        <v>33.6</v>
-      </c>
-      <c r="G2" s="13">
-        <v>25.3</v>
+        <v>6.44</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="7">
+        <v>38</v>
+      </c>
+      <c r="G2" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
+        <v>1.21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="7">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2">
-        <v>0.81</v>
+        <v>0.93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="13">
-        <v>5.7</v>
-      </c>
-      <c r="G4" s="13">
-        <v>5.4</v>
+        <v>1.39</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="7">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2">
         <v>1.64</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="13">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1.4</v>
+      <c r="E5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="7">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="7">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2533,83 +2367,75 @@
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2">
-        <v>1.05</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="13">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G8" s="13">
-        <v>3.9</v>
+        <v>0.86</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+        <v>0.94</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+        <v>1.56</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -2618,256 +2444,239 @@
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.4</v>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+        <v>1.27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+        <v>0.71</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2">
-        <v>2.33</v>
+        <v>2.54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="13">
-        <v>93.6</v>
-      </c>
-      <c r="G16" s="13">
-        <v>6.8</v>
+        <v>1.58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7">
+        <v>76</v>
+      </c>
+      <c r="G16" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0.9</v>
+        <v>1.49</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="D18" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.2</v>
+        <v>0.94</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>1.22</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="G19" s="13"/>
+        <v>0.99</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="2">
+        <v>4.74</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>1.24</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+        <v>1.08</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+        <v>1.23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
-        <v>1.34</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+        <v>1.19</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2981,24 +2790,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="2" max="2" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3015,90 +2824,87 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="H2" s="12"/>
+        <v>146</v>
+      </c>
+      <c r="F2" s="1">
+        <v>87</v>
+      </c>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="12">
-        <v>38.1</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -3108,124 +2914,111 @@
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="12">
-        <v>17.8</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2">
-        <v>2.41</v>
+        <v>2.78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="12">
-        <v>136</v>
-      </c>
-      <c r="G10" s="12">
-        <v>11</v>
+        <v>153</v>
+      </c>
+      <c r="F10" s="1">
+        <v>123</v>
+      </c>
+      <c r="G10" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>1.26</v>
+        <v>7.27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12">
-        <v>16.3</v>
-      </c>
-      <c r="G11" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Results table.xlsx
+++ b/Results/Results table.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4215" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="AJCC" sheetId="8" r:id="rId1"/>
-    <sheet name="FU time" sheetId="5" r:id="rId2"/>
-    <sheet name="Recurrence and MSM" sheetId="9" r:id="rId3"/>
+    <sheet name="FU time" sheetId="5" r:id="rId1"/>
+    <sheet name="Recurrence and MSM" sheetId="9" r:id="rId2"/>
+    <sheet name="AJCC" sheetId="8" r:id="rId3"/>
     <sheet name="Full model" sheetId="1" r:id="rId4"/>
     <sheet name="BS0.01" sheetId="2" r:id="rId5"/>
     <sheet name="Full model refit MSM" sheetId="3" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="152">
   <si>
     <t>(ref)</t>
   </si>
@@ -125,15 +125,9 @@
     <t>Negative SN patients:</t>
   </si>
   <si>
-    <t>[0.68; 0.73]</t>
-  </si>
-  <si>
     <t>Negative SN patients</t>
   </si>
   <si>
-    <t>[0.69; 0.73]</t>
-  </si>
-  <si>
     <t>AJCC7</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>[0.59; 0.64]</t>
   </si>
   <si>
-    <t>[0.71; 0.75]</t>
-  </si>
-  <si>
     <t>[0.55; 0.60]</t>
   </si>
   <si>
@@ -495,9 +486,6 @@
   </si>
   <si>
     <t>[2.65; 19.94]</t>
-  </si>
-  <si>
-    <t>[0.77; 0.82]</t>
   </si>
 </sst>
 </file>
@@ -852,10 +840,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>B2</f>
+        <v>4.79 [4.60; 4.94]</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>B3</f>
+        <v>4.75 [4.48; 4.98]</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>B4</f>
+        <v>2.73 [2.46; 3.03]</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>B5</f>
+        <v>6.33 [6.06; 7.07]</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>B6</f>
+        <v>6.19 [5.91; 6.73]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4071</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100</v>
+      </c>
+      <c r="D2" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="E2" s="11">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3182</v>
+      </c>
+      <c r="C3" s="11">
+        <v>78.2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11">
+        <v>889</v>
+      </c>
+      <c r="C4" s="11">
+        <v>21.8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>48.7</v>
+      </c>
+      <c r="E4" s="11">
+        <v>30.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -881,13 +1050,13 @@
         <v>0.73</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -898,19 +1067,19 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -921,7 +1090,7 @@
         <v>0.71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -930,13 +1099,13 @@
         <v>0.73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -947,13 +1116,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2">
         <v>0.62</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -964,7 +1133,7 @@
         <v>0.74</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>30</v>
@@ -973,13 +1142,13 @@
         <v>0.71</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2">
         <v>0.71</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -990,29 +1159,29 @@
         <v>0.62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>0.71</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1124,187 +1293,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f>B2</f>
-        <v>4.79 [4.60; 4.94]</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>B3</f>
-        <v>4.75 [4.48; 4.98]</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f>B4</f>
-        <v>2.73 [2.46; 3.03]</v>
-      </c>
-      <c r="H2" s="4" t="str">
-        <f>B5</f>
-        <v>6.33 [6.06; 7.07]</v>
-      </c>
-      <c r="I2" s="3" t="str">
-        <f>B6</f>
-        <v>6.19 [5.91; 6.73]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="11">
-        <v>4071</v>
-      </c>
-      <c r="C2" s="12">
-        <v>100</v>
-      </c>
-      <c r="D2" s="11">
-        <v>24.5</v>
-      </c>
-      <c r="E2" s="11">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11">
-        <v>3182</v>
-      </c>
-      <c r="C3" s="11">
-        <v>78.2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>18</v>
-      </c>
-      <c r="E3" s="11">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="11">
-        <v>889</v>
-      </c>
-      <c r="C4" s="11">
-        <v>21.8</v>
-      </c>
-      <c r="D4" s="11">
-        <v>48.7</v>
-      </c>
-      <c r="E4" s="11">
-        <v>30.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1312,7 +1300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1345,10 +1335,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
@@ -1363,7 +1353,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1">
         <v>41</v>
@@ -1374,19 +1364,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2">
         <v>1.25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2">
         <v>0.98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -1397,19 +1387,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2">
         <v>1.29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
@@ -1420,19 +1410,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>1.65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2">
         <v>1.4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1">
         <v>28</v>
@@ -1443,7 +1433,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1458,7 +1448,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1472,61 +1462,61 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2">
         <v>1.08</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>2.33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2">
         <v>1.53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1541,7 +1531,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1555,73 +1545,73 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
         <v>1.3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2">
         <v>1.29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
         <v>1.43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2">
         <v>1.39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2">
         <v>1.1499999999999999</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2">
         <v>2.4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2">
         <v>1.56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1">
         <v>147</v>
@@ -1632,19 +1622,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
         <v>1.52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2">
         <v>1.46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
@@ -1655,19 +1645,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
         <v>0.95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2">
         <v>0.95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -1675,7 +1665,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1683,7 +1673,7 @@
         <v>0.98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1691,7 +1681,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1699,7 +1689,7 @@
         <v>3.61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
@@ -1707,7 +1697,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1719,7 +1709,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1731,7 +1721,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1739,13 +1729,13 @@
         <v>1.4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1753,13 +1743,13 @@
         <v>0.96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1767,13 +1757,13 @@
         <v>0.9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1781,7 +1771,7 @@
         <v>1.22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1793,7 +1783,7 @@
         <v>0.77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1807,7 +1797,7 @@
         <v>0.8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1971,7 +1961,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1996,10 +1986,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2012,7 +2002,7 @@
         <v>2.93</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" s="7">
         <v>138</v>
@@ -2020,19 +2010,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
         <v>1.21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2">
         <v>1.21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" s="7">
         <v>11</v>
@@ -2040,19 +2030,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>1.6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2">
         <v>1.6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7">
         <v>32</v>
@@ -2060,7 +2050,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2071,7 +2061,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2083,70 +2073,70 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2">
         <v>1.3</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>1.46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2">
         <v>1.46</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2">
         <v>1.98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2">
         <v>1.98</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2">
         <v>2.57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2">
         <v>1.59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7">
         <v>218</v>
@@ -2157,7 +2147,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2165,7 +2155,7 @@
         <v>5.15</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7">
         <v>20</v>
@@ -2223,7 +2213,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B2" sqref="B2:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2248,10 +2238,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2264,7 +2254,7 @@
         <v>6.44</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" s="7">
         <v>38</v>
@@ -2275,19 +2265,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2">
         <v>1.65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2">
         <v>1.21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="7">
         <v>12</v>
@@ -2298,19 +2288,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
         <v>0.93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2">
         <v>1.39</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7">
         <v>8</v>
@@ -2321,19 +2311,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>2.06</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2">
         <v>1.64</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F5" s="7">
         <v>30</v>
@@ -2344,7 +2334,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2358,7 +2348,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2370,58 +2360,58 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2">
         <v>0.86</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>1.8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2">
         <v>0.94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>1.81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2">
         <v>1.56</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2435,7 +2425,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -2447,70 +2437,70 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
         <v>1.36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
         <v>1.51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2">
         <v>1.27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2">
         <v>0.71</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2">
         <v>2.54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2">
         <v>1.58</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7">
         <v>76</v>
@@ -2521,19 +2511,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
         <v>1.22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2">
         <v>1.49</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F17" s="7">
         <v>4</v>
@@ -2544,19 +2534,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
         <v>0.94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D18" s="2">
         <v>0.94</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
@@ -2564,7 +2554,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2572,7 +2562,7 @@
         <v>0.99</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
@@ -2580,7 +2570,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2588,7 +2578,7 @@
         <v>4.74</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7">
         <v>4</v>
@@ -2596,7 +2586,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2607,7 +2597,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2617,7 +2607,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2625,12 +2615,12 @@
         <v>1.08</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2638,12 +2628,12 @@
         <v>1.23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2651,12 +2641,12 @@
         <v>1.19</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2664,7 +2654,7 @@
         <v>1.42</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2672,10 +2662,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -2791,7 +2781,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2824,10 +2814,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2840,7 +2830,7 @@
         <v>3.4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F2" s="1">
         <v>87</v>
@@ -2849,19 +2839,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
         <v>1.18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2">
         <v>1.18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -2870,19 +2860,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>1.83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2">
         <v>1.83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
@@ -2891,7 +2881,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2904,7 +2894,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2918,71 +2908,71 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>0.96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D7" s="2">
         <v>0.96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2">
         <v>1.44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2">
         <v>1.74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2">
         <v>1.74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2">
         <v>2.78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D10" s="2">
         <v>1.6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F10" s="1">
         <v>123</v>
@@ -2993,7 +2983,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3001,7 +2991,7 @@
         <v>7.27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -3012,10 +3002,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>

--- a/Results/Results table.xlsx
+++ b/Results/Results table.xlsx
@@ -19,6 +19,7 @@
     <sheet name="BS0.01" sheetId="2" r:id="rId5"/>
     <sheet name="Full model refit MSM" sheetId="3" r:id="rId6"/>
     <sheet name="BS0.01 refit MSM" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="159">
   <si>
     <t>(ref)</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Warsaw</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>Follow-up time</t>
   </si>
   <si>
@@ -245,247 +243,271 @@
     <t>perc</t>
   </si>
   <si>
+    <t>[2.04; 7.92]</t>
+  </si>
+  <si>
+    <t>[1.03; 1.53]</t>
+  </si>
+  <si>
+    <t>[0.78; 1.23]</t>
+  </si>
+  <si>
+    <t>[0.96; 1.29]</t>
+  </si>
+  <si>
+    <t>[1.08; 1.53]</t>
+  </si>
+  <si>
+    <t>[1.33; 2.05]</t>
+  </si>
+  <si>
+    <t>[1.10; 1.78]</t>
+  </si>
+  <si>
+    <t>[1.05; 1.98]</t>
+  </si>
+  <si>
+    <t>[0.62; 1.90]</t>
+  </si>
+  <si>
+    <t>[1.10; 2.05]</t>
+  </si>
+  <si>
+    <t>[0.66; 1.96]</t>
+  </si>
+  <si>
+    <t>[1.57; 3.46]</t>
+  </si>
+  <si>
+    <t>[0.80; 2.92]</t>
+  </si>
+  <si>
+    <t>[1.03; 1.64]</t>
+  </si>
+  <si>
+    <t>[0.99; 1.68]</t>
+  </si>
+  <si>
+    <t>[0.83; 2.45]</t>
+  </si>
+  <si>
+    <t>[0.80; 2.40]</t>
+  </si>
+  <si>
+    <t>[0.64; 1.57]</t>
+  </si>
+  <si>
+    <t>[0.50; 2.66]</t>
+  </si>
+  <si>
+    <t>[2.06; 2.80]</t>
+  </si>
+  <si>
+    <t>[1.30; 1.88]</t>
+  </si>
+  <si>
+    <t>[1.10; 2.10]</t>
+  </si>
+  <si>
+    <t>[1.05; 2.02]</t>
+  </si>
+  <si>
+    <t>[0.90; 1.01]</t>
+  </si>
+  <si>
+    <t>[0.82; 1.17]</t>
+  </si>
+  <si>
+    <t>[1.30; 10.00]</t>
+  </si>
+  <si>
+    <t>[0.93; 2.10]</t>
+  </si>
+  <si>
+    <t>[0.58; 1.60]</t>
+  </si>
+  <si>
+    <t>[0.52; 1.55]</t>
+  </si>
+  <si>
+    <t>[0.74; 2.02]</t>
+  </si>
+  <si>
+    <t>[2.44; 3.53]</t>
+  </si>
+  <si>
+    <t>[1.08; 1.35]</t>
+  </si>
+  <si>
+    <t>[1.36; 1.88]</t>
+  </si>
+  <si>
+    <t>[0.99; 1.69]</t>
+  </si>
+  <si>
+    <t>[1.13; 1.88]</t>
+  </si>
+  <si>
+    <t>[1.44; 2.72]</t>
+  </si>
+  <si>
+    <t>[2.26; 2.93]</t>
+  </si>
+  <si>
+    <t>[1.34; 1.88]</t>
+  </si>
+  <si>
+    <t>[2.51; 10.59]</t>
+  </si>
+  <si>
+    <t>[2.54; 16.31]</t>
+  </si>
+  <si>
+    <t>[1.22; 2.24]</t>
+  </si>
+  <si>
+    <t>[0.89; 1.64]</t>
+  </si>
+  <si>
+    <t>[0.74; 1.16]</t>
+  </si>
+  <si>
+    <t>[1.09; 1.76]</t>
+  </si>
+  <si>
+    <t>[1.51; 2.80]</t>
+  </si>
+  <si>
+    <t>[1.20; 2.24]</t>
+  </si>
+  <si>
+    <t>[0.69; 1.83]</t>
+  </si>
+  <si>
+    <t>[0.44; 1.69]</t>
+  </si>
+  <si>
+    <t>[1.15; 2.81]</t>
+  </si>
+  <si>
+    <t>[0.48; 1.83]</t>
+  </si>
+  <si>
+    <t>[0.97; 3.37]</t>
+  </si>
+  <si>
+    <t>[0.75; 3.28]</t>
+  </si>
+  <si>
+    <t>[0.95; 1.93]</t>
+  </si>
+  <si>
+    <t>[0.83; 1.59]</t>
+  </si>
+  <si>
+    <t>[0.63; 3.64]</t>
+  </si>
+  <si>
+    <t>[0.59; 2.76]</t>
+  </si>
+  <si>
+    <t>[0.48; 2.07]</t>
+  </si>
+  <si>
+    <t>[0.16; 3.06]</t>
+  </si>
+  <si>
+    <t>[2.02; 3.18]</t>
+  </si>
+  <si>
+    <t>[1.24; 2.01]</t>
+  </si>
+  <si>
+    <t>[0.76; 1.97]</t>
+  </si>
+  <si>
+    <t>[0.98; 2.27]</t>
+  </si>
+  <si>
+    <t>[0.86; 1.03]</t>
+  </si>
+  <si>
+    <t>[0.79; 1.25]</t>
+  </si>
+  <si>
+    <t>[1.11; 20.25]</t>
+  </si>
+  <si>
+    <t>[0.66; 1.76]</t>
+  </si>
+  <si>
+    <t>[0.63; 2.37]</t>
+  </si>
+  <si>
+    <t>[0.60; 2.34]</t>
+  </si>
+  <si>
+    <t>[0.74; 2.72]</t>
+  </si>
+  <si>
+    <t>[2.61; 4.44]</t>
+  </si>
+  <si>
+    <t>[1.00; 1.38]</t>
+  </si>
+  <si>
+    <t>[1.47; 2.28]</t>
+  </si>
+  <si>
+    <t>[0.66; 1.41]</t>
+  </si>
+  <si>
+    <t>[1.00; 2.06]</t>
+  </si>
+  <si>
+    <t>[1.10; 2.74]</t>
+  </si>
+  <si>
+    <t>[2.30; 3.36]</t>
+  </si>
+  <si>
+    <t>[1.27; 2.01]</t>
+  </si>
+  <si>
+    <t>[2.65; 19.94]</t>
+  </si>
+  <si>
+    <t>Total Development</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>5.02 [4.89; 5.14]</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>[0.67; 0.71]</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>[0.61; 0.66]</t>
+  </si>
+  <si>
     <t>[0.69; 0.74]</t>
   </si>
   <si>
-    <t>[2.04; 7.92]</t>
-  </si>
-  <si>
-    <t>[1.03; 1.53]</t>
-  </si>
-  <si>
-    <t>[0.78; 1.23]</t>
-  </si>
-  <si>
-    <t>[0.96; 1.29]</t>
-  </si>
-  <si>
-    <t>[1.08; 1.53]</t>
-  </si>
-  <si>
-    <t>[1.33; 2.05]</t>
-  </si>
-  <si>
-    <t>[1.10; 1.78]</t>
-  </si>
-  <si>
-    <t>[1.05; 1.98]</t>
-  </si>
-  <si>
-    <t>[0.62; 1.90]</t>
-  </si>
-  <si>
-    <t>[1.10; 2.05]</t>
-  </si>
-  <si>
-    <t>[0.66; 1.96]</t>
-  </si>
-  <si>
-    <t>[1.57; 3.46]</t>
-  </si>
-  <si>
-    <t>[0.80; 2.92]</t>
-  </si>
-  <si>
-    <t>[1.03; 1.64]</t>
-  </si>
-  <si>
-    <t>[0.99; 1.68]</t>
-  </si>
-  <si>
-    <t>[0.83; 2.45]</t>
-  </si>
-  <si>
-    <t>[0.80; 2.40]</t>
-  </si>
-  <si>
-    <t>[0.64; 1.57]</t>
-  </si>
-  <si>
-    <t>[0.50; 2.66]</t>
-  </si>
-  <si>
-    <t>[2.06; 2.80]</t>
-  </si>
-  <si>
-    <t>[1.30; 1.88]</t>
-  </si>
-  <si>
-    <t>[1.10; 2.10]</t>
-  </si>
-  <si>
-    <t>[1.05; 2.02]</t>
-  </si>
-  <si>
-    <t>[0.90; 1.01]</t>
-  </si>
-  <si>
-    <t>[0.82; 1.17]</t>
-  </si>
-  <si>
-    <t>[1.30; 10.00]</t>
-  </si>
-  <si>
-    <t>[0.93; 2.10]</t>
-  </si>
-  <si>
-    <t>[0.58; 1.60]</t>
-  </si>
-  <si>
-    <t>[0.52; 1.55]</t>
-  </si>
-  <si>
-    <t>[0.74; 2.02]</t>
-  </si>
-  <si>
-    <t>[0.76; 0.79]</t>
-  </si>
-  <si>
-    <t>[0.78; 0.82]</t>
-  </si>
-  <si>
-    <t>[2.44; 3.53]</t>
-  </si>
-  <si>
-    <t>[1.08; 1.35]</t>
-  </si>
-  <si>
-    <t>[1.36; 1.88]</t>
-  </si>
-  <si>
-    <t>[0.99; 1.69]</t>
-  </si>
-  <si>
-    <t>[1.13; 1.88]</t>
-  </si>
-  <si>
-    <t>[1.44; 2.72]</t>
-  </si>
-  <si>
-    <t>[2.26; 2.93]</t>
-  </si>
-  <si>
-    <t>[1.34; 1.88]</t>
-  </si>
-  <si>
-    <t>[2.51; 10.59]</t>
-  </si>
-  <si>
-    <t>[2.54; 16.31]</t>
-  </si>
-  <si>
-    <t>[1.22; 2.24]</t>
-  </si>
-  <si>
-    <t>[0.89; 1.64]</t>
-  </si>
-  <si>
-    <t>[0.74; 1.16]</t>
-  </si>
-  <si>
-    <t>[1.09; 1.76]</t>
-  </si>
-  <si>
-    <t>[1.51; 2.80]</t>
-  </si>
-  <si>
-    <t>[1.20; 2.24]</t>
-  </si>
-  <si>
-    <t>[0.69; 1.83]</t>
-  </si>
-  <si>
-    <t>[0.44; 1.69]</t>
-  </si>
-  <si>
-    <t>[1.15; 2.81]</t>
-  </si>
-  <si>
-    <t>[0.48; 1.83]</t>
-  </si>
-  <si>
-    <t>[0.97; 3.37]</t>
-  </si>
-  <si>
-    <t>[0.75; 3.28]</t>
-  </si>
-  <si>
-    <t>[0.95; 1.93]</t>
-  </si>
-  <si>
-    <t>[0.83; 1.59]</t>
-  </si>
-  <si>
-    <t>[0.63; 3.64]</t>
-  </si>
-  <si>
-    <t>[0.59; 2.76]</t>
-  </si>
-  <si>
-    <t>[0.48; 2.07]</t>
-  </si>
-  <si>
-    <t>[0.16; 3.06]</t>
-  </si>
-  <si>
-    <t>[2.02; 3.18]</t>
-  </si>
-  <si>
-    <t>[1.24; 2.01]</t>
-  </si>
-  <si>
-    <t>[0.76; 1.97]</t>
-  </si>
-  <si>
-    <t>[0.98; 2.27]</t>
-  </si>
-  <si>
-    <t>[0.86; 1.03]</t>
-  </si>
-  <si>
-    <t>[0.79; 1.25]</t>
-  </si>
-  <si>
-    <t>[1.11; 20.25]</t>
-  </si>
-  <si>
-    <t>[0.66; 1.76]</t>
-  </si>
-  <si>
-    <t>[0.63; 2.37]</t>
-  </si>
-  <si>
-    <t>[0.60; 2.34]</t>
-  </si>
-  <si>
-    <t>[0.74; 2.72]</t>
-  </si>
-  <si>
-    <t>[2.61; 4.44]</t>
-  </si>
-  <si>
-    <t>[1.00; 1.38]</t>
-  </si>
-  <si>
-    <t>[1.47; 2.28]</t>
-  </si>
-  <si>
-    <t>[0.66; 1.41]</t>
-  </si>
-  <si>
-    <t>[1.00; 2.06]</t>
-  </si>
-  <si>
-    <t>[1.10; 2.74]</t>
-  </si>
-  <si>
-    <t>[2.30; 3.36]</t>
-  </si>
-  <si>
-    <t>[1.27; 2.01]</t>
-  </si>
-  <si>
-    <t>[2.65; 19.94]</t>
+    <t>[0.66; 0.71]</t>
+  </si>
+  <si>
+    <t>[0.74; 0.77]</t>
+  </si>
+  <si>
+    <t>[0.74; 0.78]</t>
   </si>
 </sst>
 </file>
@@ -497,7 +519,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +528,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -532,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -542,9 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -554,10 +580,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -840,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -852,11 +902,11 @@
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="10" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -864,16 +914,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>B2</f>
@@ -895,40 +945,52 @@
         <f>B6</f>
         <v>6.19 [5.91; 6.73]</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="str">
+        <f>B7</f>
+        <v>5.02 [4.89; 5.14]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -938,359 +1000,710 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="18">
+        <v>4071</v>
+      </c>
+      <c r="C2" s="19">
+        <v>100</v>
+      </c>
+      <c r="D2" s="18">
+        <v>24.5</v>
+      </c>
+      <c r="E2" s="18">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3182</v>
+      </c>
+      <c r="C3" s="18">
+        <v>78.2</v>
+      </c>
+      <c r="D3" s="18">
         <v>18</v>
       </c>
-      <c r="B2" s="11">
-        <v>4071</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="E3" s="18">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="18">
+        <v>889</v>
+      </c>
+      <c r="C4" s="18">
+        <v>21.8</v>
+      </c>
+      <c r="D4" s="18">
+        <v>48.7</v>
+      </c>
+      <c r="E4" s="18">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="18">
+        <v>4827</v>
+      </c>
+      <c r="C7" s="18">
         <v>100</v>
       </c>
-      <c r="D2" s="11">
-        <v>24.5</v>
-      </c>
-      <c r="E2" s="11">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11">
-        <v>3182</v>
-      </c>
-      <c r="C3" s="11">
-        <v>78.2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>18</v>
-      </c>
-      <c r="E3" s="11">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="D7" s="18">
+        <v>41.2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11">
-        <v>889</v>
-      </c>
-      <c r="C4" s="11">
-        <v>21.8</v>
-      </c>
-      <c r="D4" s="11">
-        <v>48.7</v>
-      </c>
-      <c r="E4" s="11">
-        <v>30.9</v>
+      <c r="B8" s="18">
+        <v>3934</v>
+      </c>
+      <c r="C8" s="18">
+        <v>81.5</v>
+      </c>
+      <c r="D8" s="18">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E8" s="18">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>893</v>
+      </c>
+      <c r="C9" s="18">
+        <v>18.5</v>
+      </c>
+      <c r="D9" s="18">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="E9" s="18">
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" style="10" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B3" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="F12" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="L12" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="F13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D14" s="13"/>
+      <c r="F14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" ref="F15:G17" si="0">B2</f>
         <v>0.73</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="G15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>[0.72; 0.75]</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" ref="I15:J17" si="1">B6</f>
+        <v>0.74</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.72; 0.75]</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" ref="L15:M17" si="2">B11</f>
+        <v>0.74</v>
+      </c>
+      <c r="M15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>[0.72; 0.75]</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" ref="O15:P17" si="3">B15</f>
+        <v>0.74</v>
+      </c>
+      <c r="P15" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>[0.72; 0.75]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>[0.55; 0.60]</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.59; 0.64]</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.61</v>
+      </c>
+      <c r="M16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>[0.59; 0.64]</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="P16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>[0.61; 0.66]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="G17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>[0.69; 0.74]</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.69; 0.74]</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="M17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>[0.67; 0.71]</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="3"/>
+        <v>0.68</v>
+      </c>
+      <c r="P17" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>[0.66; 0.71]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="B20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="F20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="G20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B21" s="14">
         <v>217</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C21" s="15">
         <v>253</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="E21" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21" s="14">
+        <v>370</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
         <v>1.2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B22" s="14">
         <v>1532</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C22" s="15">
         <v>1496</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="E22" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1574</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
         <v>2.1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B23" s="14">
         <v>692</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C23" s="15">
         <v>692</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="E23" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1065</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B24" s="14">
         <v>495</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C24" s="15">
         <v>495</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="E24" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F24" s="14">
+        <v>663</v>
+      </c>
+      <c r="G24" s="15">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B25" s="14">
         <v>250</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C25" s="15">
         <v>250</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="E25" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F25" s="14">
+        <v>262</v>
+      </c>
+      <c r="G25" s="15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
         <v>3.1</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B26" s="14">
         <v>471</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C26" s="15">
         <v>199</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="E26" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="F26" s="14">
+        <v>531</v>
+      </c>
+      <c r="G26" s="15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
         <v>3.2</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B27" s="14">
         <v>407</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C27" s="15">
         <v>208</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="E27" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="F27" s="14">
+        <v>352</v>
+      </c>
+      <c r="G27" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
         <v>3.3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B28" s="14">
         <v>8</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C28" s="15">
         <v>476</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="E28" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="F28" s="14">
+        <v>10</v>
+      </c>
+      <c r="G28" s="15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
         <v>3.4</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B29" s="14">
         <v>0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C29" s="15">
         <v>4</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="E29" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:G19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1306,19 +1719,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="34" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1335,17 +1748,17 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1353,87 +1766,87 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1">
         <v>41</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>1.25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2">
         <v>0.98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>1.29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>1.65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2">
         <v>1.4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1">
         <v>28</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1442,13 +1855,13 @@
       <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1462,61 +1875,61 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2">
         <v>1.08</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>2.33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2">
         <v>1.53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1525,13 +1938,13 @@
       <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1545,119 +1958,119 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>1.3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2">
         <v>1.29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2">
         <v>1.43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2">
         <v>1.39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2">
         <v>1.1499999999999999</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2">
         <v>2.4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2">
         <v>1.56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1">
         <v>147</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
         <v>1.52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2">
         <v>1.46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2">
         <v>0.95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2">
         <v>0.95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -1665,7 +2078,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1673,7 +2086,7 @@
         <v>0.98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1681,7 +2094,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1689,7 +2102,7 @@
         <v>3.61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
@@ -1697,7 +2110,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1709,7 +2122,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1721,7 +2134,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1729,13 +2142,13 @@
         <v>1.4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1743,13 +2156,13 @@
         <v>0.96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1757,13 +2170,13 @@
         <v>0.9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1771,7 +2184,7 @@
         <v>1.22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1783,7 +2196,7 @@
         <v>0.77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1794,10 +2207,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1966,10 +2379,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="6"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="5"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,83 +2398,83 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>2.93</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2">
         <v>1.21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2">
         <v>1.21</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
         <v>1.6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2">
         <v>1.6</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2073,91 +2486,91 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2">
         <v>1.3</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>107</v>
+      <c r="E7" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>1.46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2">
         <v>1.46</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>108</v>
+      <c r="E8" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>1.98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2">
         <v>1.98</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>109</v>
+      <c r="E9" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2">
         <v>2.57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2">
         <v>1.59</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="6">
         <v>218</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>5.15</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="6">
         <v>20</v>
       </c>
     </row>
@@ -2166,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>26</v>
+        <v>0.76</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -2180,8 +2593,8 @@
       <c r="B13" s="2">
         <v>0.79</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>27</v>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -2218,10 +2631,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="6"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="34" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="5"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2237,118 +2650,118 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>6.44</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="6">
         <v>38</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>1.65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2">
         <v>1.21</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="6">
         <v>12</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>0.93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2">
         <v>1.39</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="6">
         <v>8</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>2.06</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2">
         <v>1.64</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="6">
         <v>30</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>15</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2360,72 +2773,72 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2">
         <v>0.86</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>121</v>
+      <c r="E8" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>1.8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2">
         <v>0.94</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>123</v>
+      <c r="E9" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>1.81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2">
         <v>1.56</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>125</v>
+      <c r="E10" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -2437,167 +2850,167 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>1.36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>127</v>
+      <c r="E13" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2">
         <v>1.51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2">
         <v>1.27</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>129</v>
+      <c r="E14" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2">
         <v>0.71</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>131</v>
+      <c r="E15" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
         <v>2.54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2">
         <v>1.58</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="E16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="6">
         <v>76</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
         <v>1.22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2">
         <v>1.49</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="E17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="6">
         <v>4</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2">
         <v>0.94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D18" s="2">
         <v>0.94</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
         <v>0.99</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
         <v>4.74</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2607,54 +3020,54 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
         <v>1.08</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>139</v>
+      <c r="E23" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
         <v>1.23</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>140</v>
+      <c r="E24" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>1.19</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>141</v>
+      <c r="E25" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>1.42</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>142</v>
+      <c r="E26" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2665,7 +3078,7 @@
         <v>0.76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -2781,23 +3194,23 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="8" max="8" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -2814,15 +3227,15 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2830,58 +3243,58 @@
         <v>3.4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1">
         <v>87</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2">
         <v>1.18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
         <v>1.18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
         <v>1.83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2">
         <v>1.83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2890,11 +3303,11 @@
       <c r="F5" s="1">
         <v>16</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2904,75 +3317,75 @@
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>0.96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2">
         <v>0.96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2">
         <v>1.44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>1.74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2">
         <v>1.74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2">
         <v>2.78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D10" s="2">
         <v>1.6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" s="1">
         <v>123</v>
@@ -2983,7 +3396,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2991,7 +3404,7 @@
         <v>7.27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -3002,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3013,4 +3426,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/Results table.xlsx
+++ b/Results/Results table.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4215" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FU time" sheetId="5" r:id="rId1"/>
     <sheet name="Recurrence and MSM" sheetId="9" r:id="rId2"/>
-    <sheet name="AJCC" sheetId="8" r:id="rId3"/>
+    <sheet name="AJCC.7.8.model" sheetId="10" r:id="rId3"/>
     <sheet name="Full model" sheetId="1" r:id="rId4"/>
     <sheet name="BS0.01" sheetId="2" r:id="rId5"/>
     <sheet name="Full model refit MSM" sheetId="3" r:id="rId6"/>
     <sheet name="BS0.01 refit MSM" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
   <si>
     <t>(ref)</t>
   </si>
@@ -54,24 +53,6 @@
     <t>C-index MSM</t>
   </si>
   <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Rotterdam</t>
-  </si>
-  <si>
-    <t>Warsaw</t>
-  </si>
-  <si>
     <t>Follow-up time</t>
   </si>
   <si>
@@ -123,24 +104,6 @@
     <t>Negative SN patients:</t>
   </si>
   <si>
-    <t>Negative SN patients</t>
-  </si>
-  <si>
-    <t>AJCC7</t>
-  </si>
-  <si>
-    <t>AJCC8</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Rec</t>
   </si>
   <si>
@@ -240,9 +203,6 @@
     <t>SN tumour burden iqr</t>
   </si>
   <si>
-    <t>perc</t>
-  </si>
-  <si>
     <t>[2.04; 7.92]</t>
   </si>
   <si>
@@ -333,9 +293,6 @@
     <t>[0.74; 2.02]</t>
   </si>
   <si>
-    <t>[2.44; 3.53]</t>
-  </si>
-  <si>
     <t>[1.08; 1.35]</t>
   </si>
   <si>
@@ -450,9 +407,6 @@
     <t>[0.74; 2.72]</t>
   </si>
   <si>
-    <t>[2.61; 4.44]</t>
-  </si>
-  <si>
     <t>[1.00; 1.38]</t>
   </si>
   <si>
@@ -477,49 +431,119 @@
     <t>[2.65; 19.94]</t>
   </si>
   <si>
-    <t>Total Development</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>5.02 [4.89; 5.14]</t>
   </si>
   <si>
     <t>Validation</t>
   </si>
   <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>[0.69; 0.74]</t>
+  </si>
+  <si>
+    <t>[0.70; 0.73]</t>
+  </si>
+  <si>
+    <t>[0.64; 0.68]</t>
+  </si>
+  <si>
+    <t>[2.44; 3.52]</t>
+  </si>
+  <si>
+    <t>[0.78; 0.82]</t>
+  </si>
+  <si>
+    <t>[2.61; 4.43]</t>
+  </si>
+  <si>
+    <t>[0.02; 0.03]</t>
+  </si>
+  <si>
+    <t>[0.06; 0.10]</t>
+  </si>
+  <si>
+    <t>[0.05; 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01; 0.03]</t>
+  </si>
+  <si>
+    <t>[0.02; 0.04]</t>
+  </si>
+  <si>
+    <t>[0.66; 0.71]</t>
+  </si>
+  <si>
     <t>[0.67; 0.71]</t>
   </si>
   <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>[0.61; 0.66]</t>
-  </si>
-  <si>
-    <t>[0.69; 0.74]</t>
-  </si>
-  <si>
-    <t>[0.66; 0.71]</t>
-  </si>
-  <si>
-    <t>[0.74; 0.77]</t>
-  </si>
-  <si>
-    <t>[0.74; 0.78]</t>
+    <t>n.Rec</t>
+  </si>
+  <si>
+    <t>n.MSM</t>
+  </si>
+  <si>
+    <t>4.87 [4.67; 5.01]</t>
+  </si>
+  <si>
+    <t>4.82 [4.52; 5.06]</t>
+  </si>
+  <si>
+    <t>2.69 [2.46; 2.99]</t>
+  </si>
+  <si>
+    <t>6.47 [6.09; 7.20]</t>
+  </si>
+  <si>
+    <t>6.49 [6.07; 6.93]</t>
+  </si>
+  <si>
+    <t>4.84 [4.70; 4.99]</t>
+  </si>
+  <si>
+    <t>Recurrence time</t>
+  </si>
+  <si>
+    <t>tab.time</t>
+  </si>
+  <si>
+    <t>rep(\\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)"</t>
+  </si>
+  <si>
+    <t>[0.58; 0.63]</t>
+  </si>
+  <si>
+    <t>[0.64; 0.69]</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Positve SN patients:</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +560,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -561,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -569,8 +599,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -581,35 +609,19 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,107 +902,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f>B2</f>
-        <v>4.79 [4.60; 4.94]</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>B3</f>
-        <v>4.75 [4.48; 4.98]</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f>B4</f>
-        <v>2.73 [2.46; 3.03]</v>
-      </c>
-      <c r="H2" s="4" t="str">
-        <f>B5</f>
-        <v>6.33 [6.06; 7.07]</v>
-      </c>
-      <c r="I2" s="3" t="str">
-        <f>B6</f>
-        <v>6.19 [5.91; 6.73]</v>
-      </c>
-      <c r="J2" s="3" t="str">
-        <f>B7</f>
-        <v>5.02 [4.89; 5.14]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>150</v>
+      <c r="B3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1000,144 +976,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
+    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="5" max="5" width="7.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="9.140625" style="11"/>
+    <col min="8" max="9" width="9.140625" style="9"/>
+    <col min="10" max="10" width="9.140625" style="11"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="9.140625" style="9"/>
+    <col min="14" max="14" width="9.140625" style="11"/>
+    <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="18">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9">
         <v>4071</v>
       </c>
-      <c r="C2" s="19">
-        <v>100</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9">
+        <v>792</v>
+      </c>
+      <c r="E2" s="9">
+        <v>403</v>
+      </c>
+      <c r="G2" s="11">
         <v>24.5</v>
       </c>
-      <c r="E2" s="18">
+      <c r="H2" s="11">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="J2" s="9">
+        <v>4822</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1086</v>
+      </c>
+      <c r="M2" s="9">
+        <v>567</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="11">
+        <v>29.1</v>
+      </c>
+      <c r="P2" s="11">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9">
         <v>3182</v>
       </c>
-      <c r="C3" s="18">
-        <v>78.2</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>344</v>
+      </c>
+      <c r="E3" s="9">
+        <v>196</v>
+      </c>
+      <c r="G3" s="11">
         <v>18</v>
       </c>
-      <c r="E3" s="18">
+      <c r="H3" s="11">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="J3" s="9">
+        <v>3931</v>
+      </c>
+      <c r="L3" s="9">
+        <v>434</v>
+      </c>
+      <c r="M3" s="9">
+        <v>266</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="11">
+        <v>22.9</v>
+      </c>
+      <c r="P3" s="11">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9">
         <v>889</v>
       </c>
-      <c r="C4" s="18">
-        <v>21.8</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
+        <v>448</v>
+      </c>
+      <c r="E4" s="9">
+        <v>207</v>
+      </c>
+      <c r="G4" s="11">
         <v>48.7</v>
       </c>
-      <c r="E4" s="18">
+      <c r="H4" s="11">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="18">
-        <v>4827</v>
-      </c>
-      <c r="C7" s="18">
-        <v>100</v>
-      </c>
-      <c r="D7" s="18">
-        <v>41.2</v>
-      </c>
-      <c r="E7" s="18">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="18">
-        <v>3934</v>
-      </c>
-      <c r="C8" s="18">
-        <v>81.5</v>
-      </c>
-      <c r="D8" s="18">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="E8" s="18">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18">
-        <v>893</v>
-      </c>
-      <c r="C9" s="18">
-        <v>18.5</v>
-      </c>
-      <c r="D9" s="18">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="J4" s="9">
+        <v>891</v>
+      </c>
+      <c r="L4" s="9">
+        <v>652</v>
+      </c>
+      <c r="M4" s="9">
+        <v>301</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="11">
+        <v>53.2</v>
+      </c>
+      <c r="P4" s="11">
         <v>34.5</v>
       </c>
     </row>
@@ -1149,563 +1168,367 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2" style="10" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1" style="8" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11">
-        <v>0.73</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="E4" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.71</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="F7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="8">
         <v>0.62</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0.71</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0.61</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="F12" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="L12" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0.69</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="F13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D14" s="13"/>
-      <c r="F14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" ref="F15:G17" si="0">B2</f>
-        <v>0.73</v>
-      </c>
-      <c r="G15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[0.72; 0.75]</v>
-      </c>
-      <c r="I15" s="11">
-        <f t="shared" ref="I15:J17" si="1">B6</f>
-        <v>0.74</v>
-      </c>
-      <c r="J15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>[0.72; 0.75]</v>
-      </c>
-      <c r="L15" s="11">
-        <f t="shared" ref="L15:M17" si="2">B11</f>
-        <v>0.74</v>
-      </c>
-      <c r="M15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.72; 0.75]</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" ref="O15:P17" si="3">B15</f>
-        <v>0.74</v>
-      </c>
-      <c r="P15" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>[0.72; 0.75]</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[0.55; 0.60]</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" si="1"/>
-        <v>0.62</v>
-      </c>
-      <c r="J16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>[0.59; 0.64]</v>
-      </c>
-      <c r="L16" s="11">
-        <f t="shared" si="2"/>
-        <v>0.61</v>
-      </c>
-      <c r="M16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.59; 0.64]</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="P16" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>[0.61; 0.66]</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0.68</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="0"/>
-        <v>0.71</v>
-      </c>
-      <c r="G17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[0.69; 0.74]</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" si="1"/>
-        <v>0.71</v>
-      </c>
-      <c r="J17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>[0.69; 0.74]</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" si="2"/>
-        <v>0.69</v>
-      </c>
-      <c r="M17" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>[0.67; 0.71]</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="3"/>
-        <v>0.68</v>
-      </c>
-      <c r="P17" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>[0.66; 0.71]</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="L9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B12" s="9">
         <v>217</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C12" s="9">
         <v>253</v>
       </c>
-      <c r="E21" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F21" s="14">
-        <v>370</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>369</v>
+      </c>
+      <c r="F12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>1.2</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B13" s="9">
         <v>1532</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C13" s="9">
         <v>1496</v>
       </c>
-      <c r="E22" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="F22" s="14">
-        <v>1574</v>
-      </c>
-      <c r="G22" s="15">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>1570</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>2.1</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B14" s="9">
         <v>692</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C14" s="9">
         <v>692</v>
       </c>
-      <c r="E23" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="F23" s="14">
-        <v>1065</v>
-      </c>
-      <c r="G23" s="15">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
+        <v>1068</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B15" s="9">
         <v>495</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C15" s="9">
         <v>495</v>
       </c>
-      <c r="E24" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F24" s="14">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
         <v>663</v>
       </c>
-      <c r="G24" s="15">
+      <c r="F15" s="9">
         <v>663</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B16" s="9">
         <v>250</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C16" s="9">
         <v>250</v>
       </c>
-      <c r="E25" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F25" s="14">
-        <v>262</v>
-      </c>
-      <c r="G25" s="15">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>261</v>
+      </c>
+      <c r="F16" s="9">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>3.1</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B17" s="9">
         <v>471</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C17" s="9">
         <v>199</v>
       </c>
-      <c r="E26" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="F26" s="14">
-        <v>531</v>
-      </c>
-      <c r="G26" s="15">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
+        <v>530</v>
+      </c>
+      <c r="F17" s="9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>3.2</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B18" s="9">
         <v>407</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C18" s="9">
         <v>208</v>
       </c>
-      <c r="E27" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="F27" s="14">
-        <v>352</v>
-      </c>
-      <c r="G27" s="15">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>351</v>
+      </c>
+      <c r="F18" s="9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>3.3</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B19" s="9">
         <v>8</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C19" s="9">
         <v>476</v>
       </c>
-      <c r="E28" s="15">
-        <v>3.3</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
         <v>10</v>
       </c>
-      <c r="G28" s="15">
+      <c r="F19" s="9">
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>3.4</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B20" s="9">
         <v>0</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C20" s="9">
         <v>4</v>
       </c>
-      <c r="E29" s="15">
-        <v>3.4</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <v>0</v>
       </c>
-      <c r="G29" s="15">
+      <c r="F20" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:G19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1717,21 +1540,21 @@
       <selection activeCell="B2" sqref="B2:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="34" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1748,17 +1571,17 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1766,87 +1589,87 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1">
         <v>41</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
         <v>1.25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2">
         <v>0.98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
         <v>1.29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
         <v>1.65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
         <v>1.4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1">
         <v>28</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1855,13 +1678,13 @@
       <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1875,61 +1698,61 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2">
         <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2">
         <v>1.08</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2">
         <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
         <v>2.33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2">
         <v>1.53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1938,13 +1761,13 @@
       <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1958,119 +1781,119 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2">
         <v>1.3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2">
         <v>1.29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
         <v>1.43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2">
         <v>1.39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2">
         <v>1.1499999999999999</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
         <v>2.4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2">
         <v>1.56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1">
         <v>147</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
         <v>1.52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2">
         <v>1.46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2">
         <v>0.95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2">
         <v>0.95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -2078,7 +1901,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2086,7 +1909,7 @@
         <v>0.98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2094,7 +1917,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2102,7 +1925,7 @@
         <v>3.61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
@@ -2110,7 +1933,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2122,7 +1945,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2134,7 +1957,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2142,13 +1965,13 @@
         <v>1.4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2156,13 +1979,13 @@
         <v>0.96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2170,13 +1993,13 @@
         <v>0.9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2184,7 +2007,7 @@
         <v>1.22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -2196,7 +2019,7 @@
         <v>0.77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2210,7 +2033,7 @@
         <v>0.79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2377,12 +2200,12 @@
       <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="5"/>
-    <col min="6" max="7" width="9.140625" style="6"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="3"/>
+    <col min="6" max="7" width="9.140625" style="4"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2398,83 +2221,83 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>63</v>
+      <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>2.93</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="4">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>1.21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2">
         <v>1.21</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
         <v>1.6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2">
         <v>1.6</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="4">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2486,91 +2309,91 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2">
         <v>1.3</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>103</v>
+      <c r="E7" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>1.46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
         <v>1.46</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>104</v>
+      <c r="E8" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>1.98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2">
         <v>1.98</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>105</v>
+      <c r="E9" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>2.57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2">
         <v>1.59</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4">
         <v>218</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>5.15</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="4">
         <v>20</v>
       </c>
     </row>
@@ -2581,8 +2404,8 @@
       <c r="B12" s="2">
         <v>0.76</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -2593,8 +2416,8 @@
       <c r="B13" s="2">
         <v>0.79</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>26</v>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -2625,16 +2448,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="5"/>
-    <col min="6" max="7" width="9.140625" style="6"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="34" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="4"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2650,118 +2476,118 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>63</v>
+      <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>6.44</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="4">
         <v>38</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
         <v>1.65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2">
         <v>1.21</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="4">
         <v>12</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>0.93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2">
         <v>1.39</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="4">
         <v>8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
         <v>2.06</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>1.64</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="4">
         <v>30</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>15</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2773,72 +2599,72 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2">
         <v>0.86</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>117</v>
+      <c r="E8" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2">
         <v>1.8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2">
         <v>0.94</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>119</v>
+      <c r="E9" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
         <v>1.81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2">
         <v>1.56</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>121</v>
+      <c r="E10" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -2850,167 +2676,167 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2">
         <v>1.36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>123</v>
+      <c r="E13" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
         <v>1.51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D14" s="2">
         <v>1.27</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>125</v>
+      <c r="E14" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2">
         <v>0.71</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>127</v>
+      <c r="E15" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2">
         <v>2.54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2">
         <v>1.58</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="4">
         <v>76</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
         <v>1.22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2">
         <v>1.49</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="4">
         <v>4</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2">
         <v>0.94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D18" s="2">
         <v>0.94</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
         <v>0.99</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
         <v>4.74</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3020,54 +2846,54 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
         <v>1.08</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>135</v>
+      <c r="E23" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
         <v>1.23</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>136</v>
+      <c r="E24" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>1.19</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>137</v>
+      <c r="E25" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>1.42</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>138</v>
+      <c r="E26" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3075,10 +2901,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -3197,20 +3023,20 @@
       <selection activeCell="B2" sqref="B2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="8" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3227,15 +3053,15 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3243,58 +3069,58 @@
         <v>3.4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1">
         <v>87</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>1.18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2">
         <v>1.18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
         <v>1.83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2">
         <v>1.83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3303,11 +3129,11 @@
       <c r="F5" s="1">
         <v>16</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -3317,75 +3143,75 @@
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
         <v>0.96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2">
         <v>0.96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2">
         <v>1.44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>1.74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2">
         <v>1.74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>2.78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2">
         <v>1.6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F10" s="1">
         <v>123</v>
@@ -3396,7 +3222,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3404,7 +3230,7 @@
         <v>7.27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -3415,10 +3241,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3426,16 +3252,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Results/Results table.xlsx
+++ b/Results/Results table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4215"/>
   </bookViews>
   <sheets>
     <sheet name="FU time" sheetId="5" r:id="rId1"/>
@@ -74,21 +74,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>4.79 [4.60; 4.94]</t>
-  </si>
-  <si>
-    <t>4.75 [4.48; 4.98]</t>
-  </si>
-  <si>
-    <t>2.73 [2.46; 3.03]</t>
-  </si>
-  <si>
-    <t>6.33 [6.06; 7.07]</t>
-  </si>
-  <si>
-    <t>6.19 [5.91; 6.73]</t>
-  </si>
-  <si>
     <t>[0.75; 0.78]</t>
   </si>
   <si>
@@ -431,9 +416,6 @@
     <t>[2.65; 19.94]</t>
   </si>
   <si>
-    <t>5.02 [4.89; 5.14]</t>
-  </si>
-  <si>
     <t>Validation</t>
   </si>
   <si>
@@ -485,24 +467,6 @@
     <t>n.MSM</t>
   </si>
   <si>
-    <t>4.87 [4.67; 5.01]</t>
-  </si>
-  <si>
-    <t>4.82 [4.52; 5.06]</t>
-  </si>
-  <si>
-    <t>2.69 [2.46; 2.99]</t>
-  </si>
-  <si>
-    <t>6.47 [6.09; 7.20]</t>
-  </si>
-  <si>
-    <t>6.49 [6.07; 6.93]</t>
-  </si>
-  <si>
-    <t>4.84 [4.70; 4.99]</t>
-  </si>
-  <si>
     <t>Recurrence time</t>
   </si>
   <si>
@@ -531,6 +495,42 @@
   </si>
   <si>
     <t>e2</t>
+  </si>
+  <si>
+    <t>4.87 [2.29; 7.77]</t>
+  </si>
+  <si>
+    <t>4.82 [2.99; 6.94]</t>
+  </si>
+  <si>
+    <t>2.69 [0.93; 5.52]</t>
+  </si>
+  <si>
+    <t>6.47 [3.65; 9.65]</t>
+  </si>
+  <si>
+    <t>6.49 [3.62; 10.19]</t>
+  </si>
+  <si>
+    <t>4.84 [2.16; 8.67]</t>
+  </si>
+  <si>
+    <t>4.79 [2.28; 7.76]</t>
+  </si>
+  <si>
+    <t>4.75 [2.97; 6.96]</t>
+  </si>
+  <si>
+    <t>2.73 [0.94; 5.56]</t>
+  </si>
+  <si>
+    <t>6.33 [3.53; 9.60]</t>
+  </si>
+  <si>
+    <t>6.19 [3.37; 10.12]</t>
+  </si>
+  <si>
+    <t>5.02 [2.23; 8.91]</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -920,30 +920,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -951,22 +951,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -1004,46 +1004,46 @@
         <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>10</v>
@@ -1196,173 +1196,173 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8">
         <v>0.73</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8">
         <v>0.74</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8">
         <v>0.71</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E3" s="8">
         <v>0.71</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>0.57999999999999996</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8">
         <v>0.62</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="8">
         <v>0.74</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8">
         <v>0.71</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H7" s="8">
         <v>0.02</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K7" s="8">
         <v>0.71</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N7" s="8">
         <v>0.03</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8">
         <v>0.69</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E8" s="8">
         <v>0.66</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H8" s="8">
         <v>0.02</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K8" s="8">
         <v>0.66</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N8" s="8">
         <v>0.03</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B9" s="8">
         <v>0.68</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E9" s="8">
         <v>0.6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H9" s="8">
         <v>0.08</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K9" s="8">
         <v>0.62</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N9" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1571,10 +1571,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
@@ -1589,7 +1589,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1">
         <v>41</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>1.25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2">
         <v>0.98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -1623,19 +1623,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>1.29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
@@ -1646,19 +1646,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2">
         <v>1.65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2">
         <v>1.4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1">
         <v>28</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1698,61 +1698,61 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2">
         <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2">
         <v>1.08</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
         <v>2.33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2">
         <v>1.53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1781,73 +1781,73 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2">
         <v>1.3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2">
         <v>1.29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2">
         <v>1.43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2">
         <v>1.39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2">
         <v>1.1499999999999999</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>2.4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2">
         <v>1.56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1">
         <v>147</v>
@@ -1858,19 +1858,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>1.52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2">
         <v>1.46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
@@ -1881,19 +1881,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
         <v>0.95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2">
         <v>0.95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1909,7 +1909,7 @@
         <v>0.98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1925,7 +1925,7 @@
         <v>3.61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1965,13 +1965,13 @@
         <v>1.4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1979,13 +1979,13 @@
         <v>0.96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1993,13 +1993,13 @@
         <v>0.9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2007,7 +2007,7 @@
         <v>1.22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -2019,7 +2019,7 @@
         <v>0.77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2033,7 +2033,7 @@
         <v>0.79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2222,10 +2222,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>2.93</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F2" s="4">
         <v>138</v>
@@ -2246,19 +2246,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>1.21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2">
         <v>1.21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4">
         <v>11</v>
@@ -2266,19 +2266,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>1.6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2">
         <v>1.6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F4" s="4">
         <v>32</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2309,70 +2309,70 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2">
         <v>1.3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>1.46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2">
         <v>1.46</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
         <v>1.98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2">
         <v>1.98</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
         <v>2.57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2">
         <v>1.59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F10" s="4">
         <v>218</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2391,7 +2391,7 @@
         <v>5.15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F11" s="4">
         <v>20</v>
@@ -2405,7 +2405,7 @@
         <v>0.76</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -2417,7 +2417,7 @@
         <v>0.79</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -2477,10 +2477,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
         <v>6.44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F2" s="4">
         <v>38</v>
@@ -2504,19 +2504,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>1.65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2">
         <v>1.21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F3" s="4">
         <v>12</v>
@@ -2527,19 +2527,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2">
         <v>0.93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2">
         <v>1.39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F4" s="4">
         <v>8</v>
@@ -2550,19 +2550,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2">
         <v>2.06</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2">
         <v>1.64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F5" s="4">
         <v>30</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2599,58 +2599,58 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2">
         <v>0.86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>1.8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2">
         <v>0.94</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
         <v>1.81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2">
         <v>1.56</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -2676,70 +2676,70 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2">
         <v>1.36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2">
         <v>1.51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2">
         <v>1.27</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2">
         <v>0.71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>2.54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2">
         <v>1.58</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F16" s="4">
         <v>76</v>
@@ -2750,19 +2750,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>1.22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D17" s="2">
         <v>1.49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F17" s="4">
         <v>4</v>
@@ -2773,19 +2773,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
         <v>0.94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2">
         <v>0.94</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2801,7 +2801,7 @@
         <v>0.99</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2817,7 +2817,7 @@
         <v>4.74</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F20" s="4">
         <v>4</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2854,12 +2854,12 @@
         <v>1.08</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2867,12 +2867,12 @@
         <v>1.23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2880,12 +2880,12 @@
         <v>1.19</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2893,7 +2893,7 @@
         <v>1.42</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2904,7 +2904,7 @@
         <v>0.8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -3053,10 +3053,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3069,7 +3069,7 @@
         <v>3.4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F2" s="1">
         <v>87</v>
@@ -3078,19 +3078,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>1.18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2">
         <v>1.18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -3099,19 +3099,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>1.83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2">
         <v>1.83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -3147,71 +3147,71 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
         <v>0.96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2">
         <v>0.96</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>1.44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2">
         <v>1.44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
         <v>1.74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2">
         <v>1.74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
         <v>2.78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2">
         <v>1.6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1">
         <v>123</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3230,7 +3230,7 @@
         <v>7.27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -3244,7 +3244,7 @@
         <v>0.79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>

--- a/Results/Results table.xlsx
+++ b/Results/Results table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4215" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="FU time" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="BS0.01" sheetId="2" r:id="rId5"/>
     <sheet name="Full model refit MSM" sheetId="3" r:id="rId6"/>
     <sheet name="BS0.01 refit MSM" sheetId="4" r:id="rId7"/>
+    <sheet name="Pooled data" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="181">
   <si>
     <t>(ref)</t>
   </si>
@@ -531,6 +532,48 @@
   </si>
   <si>
     <t>5.02 [2.23; 8.91]</t>
+  </si>
+  <si>
+    <t>[2.65; 3.34]</t>
+  </si>
+  <si>
+    <t>[1.45; 1.77]</t>
+  </si>
+  <si>
+    <t>[1.23; 1.71]</t>
+  </si>
+  <si>
+    <t>[1.10; 1.50]</t>
+  </si>
+  <si>
+    <t>[1.39; 1.98]</t>
+  </si>
+  <si>
+    <t>[1.05; 1.27]</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Covariates</t>
+  </si>
+  <si>
+    <t>Pooled data</t>
+  </si>
+  <si>
+    <t>Training data</t>
+  </si>
+  <si>
+    <t>[1.24; 1.42]</t>
+  </si>
+  <si>
+    <t>[1.90; 2.24]</t>
+  </si>
+  <si>
+    <t>[1.40; 1.77]</t>
+  </si>
+  <si>
+    <t>[3.28; 9.06]</t>
   </si>
 </sst>
 </file>
@@ -591,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -622,6 +665,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2197,7 +2249,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G13"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3020,7 +3072,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G12"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3252,4 +3304,398 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
+        <v>2.98</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15">
+        <v>1.33</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1.33</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
+        <v>1.28</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1.28</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1.58</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
+        <v>5.45</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results/Results table.xlsx
+++ b/Results/Results table.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="185">
   <si>
     <t>(ref)</t>
   </si>
@@ -564,16 +564,28 @@
     <t>Training data</t>
   </si>
   <si>
-    <t>[1.24; 1.42]</t>
-  </si>
-  <si>
-    <t>[1.90; 2.24]</t>
-  </si>
-  <si>
-    <t>[1.40; 1.77]</t>
-  </si>
-  <si>
     <t>[3.28; 9.06]</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>[1.25; 1.45]</t>
+  </si>
+  <si>
+    <t>[1.97; 2.35]</t>
+  </si>
+  <si>
+    <t>[1.43; 1.83]</t>
   </si>
 </sst>
 </file>
@@ -3311,7 +3323,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3363,16 +3375,16 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -3419,16 +3431,16 @@
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I4" s="15">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3619,16 +3631,16 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15">
-        <v>2.0699999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I11" s="15">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -3652,7 +3664,7 @@
         <v>5.45</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>

--- a/Results/Results table.xlsx
+++ b/Results/Results table.xlsx
@@ -447,9 +447,6 @@
     <t>[0.06; 0.10]</t>
   </si>
   <si>
-    <t>[0.05; 0.09]</t>
-  </si>
-  <si>
     <t>[0.01; 0.03]</t>
   </si>
   <si>
@@ -480,9 +477,6 @@
     <t xml:space="preserve"> 3)"</t>
   </si>
   <si>
-    <t>[0.58; 0.63]</t>
-  </si>
-  <si>
     <t>[0.64; 0.69]</t>
   </si>
   <si>
@@ -586,6 +580,12 @@
   </si>
   <si>
     <t>[1.43; 1.83]</t>
+  </si>
+  <si>
+    <t>[0.58; 0.62]</t>
+  </si>
+  <si>
+    <t>[0.05; 0.08]</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -682,6 +682,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -969,7 +972,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -984,30 +987,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1015,22 +1018,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1046,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection sqref="A1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,16 +1071,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>19</v>
@@ -1086,25 +1089,25 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="N1" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>19</v>
@@ -1235,7 +1238,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A7" sqref="A7:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1362,19 +1365,19 @@
         <v>0.69</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="8">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H8" s="8">
         <v>0.02</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" s="8">
         <v>0.66</v>
@@ -1386,24 +1389,24 @@
         <v>0.03</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" s="8">
         <v>0.68</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="8">
         <v>0.6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="H9" s="8">
         <v>0.08</v>
@@ -1418,15 +1421,15 @@
         <v>21</v>
       </c>
       <c r="N9" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1459,10 +1462,10 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="F13" s="9">
-        <v>1940</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1477,10 +1480,10 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="F14" s="9">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1495,10 +1498,10 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F15" s="9">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1513,10 +1516,10 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1531,7 +1534,7 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F17" s="9">
         <v>247</v>
@@ -1549,7 +1552,7 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F18" s="9">
         <v>191</v>
@@ -1601,7 +1604,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G28"/>
+      <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2261,7 +2264,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2513,7 +2516,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G27"/>
+      <selection sqref="A1:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3084,7 +3087,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3320,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3344,22 +3347,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="G1" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -3375,16 +3378,16 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -3393,12 +3396,12 @@
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16">
         <v>2.93</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>133</v>
       </c>
       <c r="F3" s="15"/>
@@ -3408,7 +3411,7 @@
         <v>2.98</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3417,16 +3420,16 @@
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="16">
         <v>1.21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="16">
         <v>1.21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F4" s="15"/>
@@ -3434,13 +3437,13 @@
         <v>1.35</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I4" s="15">
         <v>1.35</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3449,16 +3452,16 @@
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="16">
         <v>1.6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="16">
         <v>1.6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="15"/>
@@ -3466,13 +3469,13 @@
         <v>1.6</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I5" s="15">
         <v>1.6</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3481,10 +3484,10 @@
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -3497,14 +3500,14 @@
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
         <v>0</v>
@@ -3521,16 +3524,16 @@
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="16">
         <v>1.3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="16">
         <v>1.3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="15"/>
@@ -3538,13 +3541,13 @@
         <v>1.45</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I8" s="15">
         <v>1.45</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3553,16 +3556,16 @@
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="16">
         <v>1.46</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="16">
         <v>1.46</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F9" s="15"/>
@@ -3570,13 +3573,13 @@
         <v>1.28</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I9" s="15">
         <v>1.28</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -3585,16 +3588,16 @@
       <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="16">
         <v>1.98</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="16">
         <v>1.98</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="15"/>
@@ -3602,13 +3605,13 @@
         <v>1.66</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I10" s="15">
         <v>1.66</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -3617,16 +3620,16 @@
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="16">
         <v>2.57</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="16">
         <v>1.59</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="15"/>
@@ -3634,13 +3637,13 @@
         <v>2.15</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I11" s="15">
         <v>1.62</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -3649,12 +3652,12 @@
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16">
         <v>5.15</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="15"/>
@@ -3664,27 +3667,31 @@
         <v>5.45</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15">
         <v>1.1499999999999999</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I13" s="15">
         <v>1.1499999999999999</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="2"/>
@@ -3694,6 +3701,12 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
@@ -3701,6 +3714,83 @@
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Results/Results table.xlsx
+++ b/Results/Results table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4215" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4215" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="FU time" sheetId="5" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -682,6 +682,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1238,7 +1241,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:O9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2515,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:G27"/>
     </sheetView>
   </sheetViews>
@@ -3326,7 +3329,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3347,18 +3350,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -3396,12 +3399,12 @@
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17">
         <v>2.93</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>133</v>
       </c>
       <c r="F3" s="15"/>
@@ -3420,16 +3423,16 @@
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="17">
         <v>1.21</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>1.21</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F4" s="15"/>
@@ -3452,16 +3455,16 @@
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="17">
         <v>1.6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>1.6</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="15"/>
@@ -3484,10 +3487,10 @@
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -3500,14 +3503,14 @@
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
         <v>0</v>
@@ -3524,16 +3527,16 @@
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="17">
         <v>1.3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>1.3</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="15"/>
@@ -3556,16 +3559,16 @@
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="17">
         <v>1.46</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>1.46</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>85</v>
       </c>
       <c r="F9" s="15"/>
@@ -3588,16 +3591,16 @@
       <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="17">
         <v>1.98</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="17">
         <v>1.98</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="15"/>
@@ -3620,16 +3623,16 @@
       <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>2.57</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>1.59</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="15"/>
@@ -3652,12 +3655,12 @@
       <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
         <v>5.15</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="15"/>
@@ -3716,81 +3719,81 @@
       <c r="O14" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
